--- a/ExcelTo/excel_data/Goods.xlsx
+++ b/ExcelTo/excel_data/Goods.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="China" sheetId="1" r:id="rId1"/>
@@ -152,10 +152,6 @@
     <t>10|19</t>
   </si>
   <si>
-    <t>物,品,描,述1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>物,品,描,述2</t>
   </si>
   <si>
@@ -215,6 +211,10 @@
   </si>
   <si>
     <t>出生点1|出生点2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物,,品,,描,,述1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -566,7 +566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -584,16 +584,16 @@
         <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
         <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F1" t="s">
         <v>30</v>
@@ -613,7 +613,7 @@
         <v>10000.999999899999</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F2">
         <v>30</v>
@@ -647,7 +647,7 @@
         <v>30000</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6">
         <v>50</v>
@@ -784,14 +784,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.875" bestFit="1" customWidth="1"/>
@@ -799,19 +800,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s">
         <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F1" t="s">
         <v>30</v>
@@ -825,7 +826,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D2">
         <v>10000</v>
@@ -842,13 +843,13 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3">
         <v>20000</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F3">
         <v>40</v>
@@ -862,7 +863,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4">
         <v>30000</v>
@@ -882,7 +883,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5">
         <v>40000</v>
@@ -902,7 +903,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6">
         <v>50000</v>
@@ -922,7 +923,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7">
         <v>60000</v>
@@ -942,7 +943,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8">
         <v>70000</v>
@@ -962,7 +963,7 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9">
         <v>80000</v>
@@ -982,7 +983,7 @@
         <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10">
         <v>90000</v>
